--- a/data/trans_camb/P1423-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>5.24474046021158</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.703145852039143</v>
+        <v>4.703145852039146</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.903835249957567</v>
@@ -664,7 +664,7 @@
         <v>2.807905002727402</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.03589794193677</v>
+        <v>5.035897941936772</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3313280397495915</v>
+        <v>-0.3547023622139223</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.263224650689532</v>
+        <v>-1.174105000767525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.262154891388505</v>
+        <v>3.025808259512155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.41472378266208</v>
+        <v>3.623768425232928</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.022977631441469</v>
+        <v>2.272178078026388</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.063116866108818</v>
+        <v>2.315612560363719</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.231122702428518</v>
+        <v>2.172422707351684</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.043657106998531</v>
+        <v>1.128225138988015</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.170916758734855</v>
+        <v>3.473919692255208</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.041453935122641</v>
+        <v>3.033954538150089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.206633631240568</v>
+        <v>2.02530848368525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.563184889076294</v>
+        <v>7.666409483771179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.740209946431264</v>
+        <v>9.735341672437958</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.238628897189615</v>
+        <v>8.447775873428116</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.16421569843757</v>
+        <v>7.407234654637672</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.679269766967724</v>
+        <v>5.590561140315725</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.710521039740425</v>
+        <v>4.735633659637141</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.784147838757685</v>
+        <v>7.038370143062768</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.8090607709452969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7255136527319144</v>
+        <v>0.7255136527319147</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.8859280127929388</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1163451223491462</v>
+        <v>-0.1489244757660445</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4237572681738174</v>
+        <v>-0.3965249815197864</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.8891258719913387</v>
+        <v>0.8362487944208167</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4190620789844943</v>
+        <v>0.4523872548637936</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2633529051873976</v>
+        <v>0.2799174283574877</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2755067028228212</v>
+        <v>0.2685243390235036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4006210925678492</v>
+        <v>0.4041832335185059</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1949723983039504</v>
+        <v>0.2224743294227202</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6053357596991032</v>
+        <v>0.6599257078548677</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.936928245524081</v>
+        <v>1.872397251740772</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.38998018208222</v>
+        <v>1.218770292396355</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.737907264939986</v>
+        <v>4.596981564056935</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.873550083330853</v>
+        <v>1.879752796624871</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.61763975788387</v>
+        <v>1.637299055588292</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.443739627251087</v>
+        <v>1.45568008166939</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.533954934027279</v>
+        <v>1.506248537734778</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.258985418385843</v>
+        <v>1.300247716814412</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.833943392258683</v>
+        <v>1.929986212530775</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.2837233931956735</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.627424956391832</v>
+        <v>2.627424956391829</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.05290625827223213</v>
+        <v>0.1120827081986307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.240305070723326</v>
+        <v>-2.150874178652936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01390289601231686</v>
+        <v>0.02913927153950403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8676365222932818</v>
+        <v>0.8832745269300009</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.42391973102381</v>
+        <v>-1.104468660754321</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5992112273460479</v>
+        <v>1.106989863468741</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.105247915206456</v>
+        <v>1.015725770882869</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.27519919057257</v>
+        <v>-1.155318124392401</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.018881452140754</v>
+        <v>1.086089022160357</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.489181526476596</v>
+        <v>3.531740894215214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5761432601593882</v>
+        <v>0.6210209291366108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.409346891469047</v>
+        <v>3.374884202286269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.360748979311497</v>
+        <v>6.359408807029375</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.004182709826843</v>
+        <v>4.155845244848534</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.783305050598509</v>
+        <v>5.902612659168275</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.437108266640574</v>
+        <v>4.306857843277163</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.687801360449857</v>
+        <v>1.697599859566179</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.049055539384197</v>
+        <v>4.242034330360517</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.05282341013045854</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4891720224238608</v>
+        <v>0.4891720224238603</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03762206282853515</v>
+        <v>0.01987329645153497</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5889245459767483</v>
+        <v>-0.5949837125434142</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01545771571174353</v>
+        <v>-0.005791037960591635</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08290190560203219</v>
+        <v>0.1042376554027653</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1598368407373073</v>
+        <v>-0.1285423271783045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05955891986560392</v>
+        <v>0.111829207064499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1683258308825558</v>
+        <v>0.150696293787613</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1994897609481364</v>
+        <v>-0.1964246137817948</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.15614088160099</v>
+        <v>0.1685174586460177</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.566283553426786</v>
+        <v>1.750211785654143</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2835806260844104</v>
+        <v>0.3006329899173407</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.490539584480847</v>
+        <v>1.637188725527495</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9833355379805513</v>
+        <v>0.9908542186446513</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6356017919655919</v>
+        <v>0.6360005724348172</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9300311093608659</v>
+        <v>0.8848054973715002</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9543447133114515</v>
+        <v>0.924091529252874</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.35878785471244</v>
+        <v>0.3796083016667481</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8710930502232923</v>
+        <v>0.9174781099421703</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.1417613220059698</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.07503322081723</v>
+        <v>2.075033220817229</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.117952993750259</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.243523676399463</v>
+        <v>-2.250299229635811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.841653617506549</v>
+        <v>-1.744147618809659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2317206321850327</v>
+        <v>0.06465143932161227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7122011574879296</v>
+        <v>-0.7017395697117084</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.39132721449466</v>
+        <v>-1.5575864531245</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.8510162608045</v>
+        <v>2.776839494074795</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.81544234616967</v>
+        <v>-0.8124022706650786</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9241656923293062</v>
+        <v>-1.033883185004987</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.21237174724908</v>
+        <v>2.002139882120581</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.715834459468716</v>
+        <v>1.875332557708483</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.973069980173296</v>
+        <v>2.1114720582069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.203931154586047</v>
+        <v>4.520909285627097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.170832410620711</v>
+        <v>5.186384534525886</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.220743125895978</v>
+        <v>4.148931751163558</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.701706051257144</v>
+        <v>8.755111105307005</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.669681997280258</v>
+        <v>2.866630585274776</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.526602749114646</v>
+        <v>2.509107056457742</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.850236136568533</v>
+        <v>5.868316319270916</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.04035848206111915</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5907478135330301</v>
+        <v>0.5907478135330297</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2676193562932213</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5101449817875897</v>
+        <v>-0.51236674890227</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3895438355557721</v>
+        <v>-0.4073607038452053</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09262480575269134</v>
+        <v>-0.02655007459737361</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09220864801558359</v>
+        <v>-0.07481749411530583</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1533163764094627</v>
+        <v>-0.1732075797188482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3007000782172982</v>
+        <v>0.2987370930754081</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.124447455587492</v>
+        <v>-0.1242617603971053</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1463802779593389</v>
+        <v>-0.1577925248652213</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3286465763805256</v>
+        <v>0.2991358391873747</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6896303532755899</v>
+        <v>0.7691469395390139</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7244759550356767</v>
+        <v>0.8401046093039862</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.537317400254252</v>
+        <v>1.777126771694561</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7723082272526568</v>
+        <v>0.7817812516485061</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6361579041127602</v>
+        <v>0.6258037290016617</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.292898408576729</v>
+        <v>1.380444510512052</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5489791463816029</v>
+        <v>0.6071326876924427</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5260149324411079</v>
+        <v>0.5055285288933552</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.206210561366245</v>
+        <v>1.216444958216471</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6197275801734939</v>
+        <v>-0.5158868964156158</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8655680022362831</v>
+        <v>-0.7808745056097923</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.623564512702279</v>
+        <v>1.542026752899026</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.855634889101722</v>
+        <v>0.9111823076200651</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3002539261812353</v>
+        <v>0.658315974568397</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.173152562863151</v>
+        <v>1.90009596400575</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8188270045153881</v>
+        <v>0.7528108541794418</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4339754860726664</v>
+        <v>0.4171062766179755</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.459741673846783</v>
+        <v>2.523013312435528</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.176207251158113</v>
+        <v>3.235336919874551</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.677144298272354</v>
+        <v>2.882278463006172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.539833371640123</v>
+        <v>5.364604674917239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.136479174049903</v>
+        <v>6.167357213025109</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.892719318074664</v>
+        <v>5.897738466872583</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.024127331798296</v>
+        <v>6.984458827791386</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.043407265545331</v>
+        <v>4.098346005352292</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.691757792001757</v>
+        <v>3.8374996536475</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.718689473028729</v>
+        <v>5.713118624161694</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1455284734677684</v>
+        <v>-0.1246672686841454</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.199340226131291</v>
+        <v>-0.1901301545025744</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3641446019645387</v>
+        <v>0.3594123112298243</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.100863959960745</v>
+        <v>0.08615890538358922</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03078678651289228</v>
+        <v>0.06965415560597447</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2168404846751651</v>
+        <v>0.2012035846627145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1274709720736099</v>
+        <v>0.1109578601081876</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.06504313249507934</v>
+        <v>0.07262661423898138</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3583010516667123</v>
+        <v>0.366559282954049</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.193489765263044</v>
+        <v>1.214814648813147</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.037168524451262</v>
+        <v>1.016250978696119</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.04656399772074</v>
+        <v>1.999278388149305</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9189010941463119</v>
+        <v>0.8998790317323236</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8762966758833238</v>
+        <v>0.8793333933588475</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.048661600047582</v>
+        <v>1.045715263814326</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7804079517541879</v>
+        <v>0.8000342980490401</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7132457754917111</v>
+        <v>0.7508259323612586</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.11375399106904</v>
+        <v>1.111514609407292</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.581223824922836</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.6103710220947</v>
+        <v>4.610371022094699</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.466690793721821</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1473706583713238</v>
+        <v>0.1745041423054546</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7026901155353734</v>
+        <v>-0.7339013319506107</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.950681755539814</v>
+        <v>1.973231031279529</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.397952458246814</v>
+        <v>2.372143870278295</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.161101874440878</v>
+        <v>1.090461097080459</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.302899404362897</v>
+        <v>3.318006420457687</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.636874593304861</v>
+        <v>1.567472041040739</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5450494570780762</v>
+        <v>0.5561484565426547</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.065163157489568</v>
+        <v>3.004865173376245</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.031486898749482</v>
+        <v>2.061003308898028</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.032653869597448</v>
+        <v>0.9479275997979816</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.991013026997642</v>
+        <v>3.918221578033777</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.280564767661856</v>
+        <v>5.146097940340361</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.978276975072592</v>
+        <v>4.014163082780509</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.871697121829182</v>
+        <v>5.886189175987182</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.37174362272131</v>
+        <v>3.303640852949239</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.245485975630459</v>
+        <v>2.224120600581322</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.704769927245287</v>
+        <v>4.677243535438367</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3392347595270692</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6059134004226148</v>
+        <v>0.6059134004226145</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4579597375793631</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.03732537538299653</v>
+        <v>0.04217653324523086</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2012460986744842</v>
+        <v>-0.2142283470475457</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5435959126428151</v>
+        <v>0.5547998979843058</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2889008864755401</v>
+        <v>0.2858336914213934</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1418200306550996</v>
+        <v>0.1253296293933375</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3981196447299163</v>
+        <v>0.4013340617194652</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2753439297390223</v>
+        <v>0.2807612873786957</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.09362657702966144</v>
+        <v>0.09406726016239704</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.518458212026634</v>
+        <v>0.5084044497034338</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7619213297627796</v>
+        <v>0.7607906475543299</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3908789215759995</v>
+        <v>0.3434471840805865</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.469749315833994</v>
+        <v>1.411225606865702</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7394502174774477</v>
+        <v>0.7316496587444034</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5616969867102038</v>
+        <v>0.569180202259211</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8677768464615505</v>
+        <v>0.8504896854856682</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6618174780301129</v>
+        <v>0.657700169613737</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.446752448953268</v>
+        <v>0.4490729307736277</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9630100421692342</v>
+        <v>0.9480762285774387</v>
       </c>
     </row>
     <row r="34">
